--- a/Web_DashBoard/Web_Dashboard_Test/TADashboard_TestData_Panel.xlsx
+++ b/Web_DashBoard/Web_Dashboard_Test/TADashboard_TestData_Panel.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="5" r:id="rId1"/>
     <sheet name="PanelData" sheetId="1" r:id="rId2"/>
-    <sheet name="UpdatedPanelData" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>administrator</t>
   </si>
@@ -62,9 +61,6 @@
     <t>Percentage</t>
   </si>
   <si>
-    <t>Criterias</t>
-  </si>
-  <si>
     <t>Indicator</t>
   </si>
   <si>
@@ -80,13 +76,22 @@
     <t>Created by</t>
   </si>
   <si>
-    <t>10-#ff0000,50-#ffff00,80-#7030a0</t>
+    <t>From</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>10,50,80</t>
+  </si>
+  <si>
+    <t>#ff0000,#ffff00,#7030a0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -125,7 +130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -148,11 +153,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -161,6 +177,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,7 +452,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -443,15 +462,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -480,25 +499,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -524,27 +544,30 @@
         <v>12</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="E2" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>0</v>
@@ -553,62 +576,14 @@
         <v>0</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>